--- a/EntradaInvierno_LETTA.xlsx
+++ b/EntradaInvierno_LETTA.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13940"/>
+    <workbookView windowWidth="15740" windowHeight="13260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$167</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$214</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="425">
   <si>
     <t>Code</t>
   </si>
@@ -1052,6 +1052,246 @@
   </si>
   <si>
     <t>Sudadera con motivo de texto gris claro jaspeado/Monaco H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA967</t>
+  </si>
+  <si>
+    <t>Sudadera de hombre básica loose fit azul marino H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA968</t>
+  </si>
+  <si>
+    <t>LTA969</t>
+  </si>
+  <si>
+    <t>LTA970</t>
+  </si>
+  <si>
+    <t>LTA971</t>
+  </si>
+  <si>
+    <t>Sudadera de hombre básica gris claro jaspeado H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA972</t>
+  </si>
+  <si>
+    <t>Sudadera de hombre básica beige claro H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA973</t>
+  </si>
+  <si>
+    <t>LTA974</t>
+  </si>
+  <si>
+    <t>hombres /hm /hm /tallas-extra-grandes</t>
+  </si>
+  <si>
+    <t>Sudadera de hombre hoodie con cierre de zipper negro H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA975</t>
+  </si>
+  <si>
+    <t>Sudadera de hombre básica amarilla H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA976</t>
+  </si>
+  <si>
+    <t>Sudadera de hombre Thermolite negra H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA977</t>
+  </si>
+  <si>
+    <t>Sudadera de hombre básica negra H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA978</t>
+  </si>
+  <si>
+    <t>LTA979</t>
+  </si>
+  <si>
+    <t>LTA980</t>
+  </si>
+  <si>
+    <t>Sudadera de hombre de algodón negro efecto lavado H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA981</t>
+  </si>
+  <si>
+    <t>Sudadera de hombre loose fit negra/Fórmula 1 H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA982</t>
+  </si>
+  <si>
+    <t>Enguatada de hombre en punto negro H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA983</t>
+  </si>
+  <si>
+    <t>LTA984</t>
+  </si>
+  <si>
+    <t>BLTHM0810</t>
+  </si>
+  <si>
+    <t>Enguatada de hombre regular fit negra H&amp;M</t>
+  </si>
+  <si>
+    <t>0532</t>
+  </si>
+  <si>
+    <t>YILHM0850</t>
+  </si>
+  <si>
+    <t>LTA985</t>
+  </si>
+  <si>
+    <t>Enguatada de hombre slim fit de cuello delgado negra H&amp;M</t>
+  </si>
+  <si>
+    <t>BLTHM0811</t>
+  </si>
+  <si>
+    <t>LTA986</t>
+  </si>
+  <si>
+    <t>Chaqueta de sarga regular fit beige oscuro H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA987</t>
+  </si>
+  <si>
+    <t>Enguatada de hombre beige claro H&amp;M</t>
+  </si>
+  <si>
+    <t>0736</t>
+  </si>
+  <si>
+    <t>Jersey de punto fino de cuello alto negro H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA988</t>
+  </si>
+  <si>
+    <t>Enguatada de hombre waffled gris claro H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA989</t>
+  </si>
+  <si>
+    <t>Camisa de mangas largas en tejido waffled crema H&amp;M</t>
+  </si>
+  <si>
+    <t>0501</t>
+  </si>
+  <si>
+    <t>Polo de mangas largas en tejido waffled crema H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA990</t>
+  </si>
+  <si>
+    <t>Suéter en punto fino gris oscuro H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA991</t>
+  </si>
+  <si>
+    <t>Suéter slim fit cuello alto con zipper beige oscuro H&amp;M</t>
+  </si>
+  <si>
+    <t>0737</t>
+  </si>
+  <si>
+    <t>Enguatada de hombre waffled marrón oscuro H&amp;M</t>
+  </si>
+  <si>
+    <t>0503</t>
+  </si>
+  <si>
+    <t>Enguatada de hombre waffled negra H&amp;M</t>
+  </si>
+  <si>
+    <t>0740</t>
+  </si>
+  <si>
+    <t>Suéter en punto fino beige grisáceo H&amp;M</t>
+  </si>
+  <si>
+    <t>0741</t>
+  </si>
+  <si>
+    <t>0502</t>
+  </si>
+  <si>
+    <t>Enguatada de hombre waffled beige claro H&amp;M</t>
+  </si>
+  <si>
+    <t>0720</t>
+  </si>
+  <si>
+    <t>Polo piqué de mangas largas azul marino H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA992</t>
+  </si>
+  <si>
+    <t>SQ3227583</t>
+  </si>
+  <si>
+    <t>Suéter en punto fino cuello alto crema H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA993</t>
+  </si>
+  <si>
+    <t>0647</t>
+  </si>
+  <si>
+    <t>Suéter en punto fino cuello alto azul marino H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA994</t>
+  </si>
+  <si>
+    <t>Suéter en punto fino slim fit azul marino H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA995</t>
+  </si>
+  <si>
+    <t>LTA996</t>
+  </si>
+  <si>
+    <t>Sudadera de hombre básica verde oscuro H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA997</t>
+  </si>
+  <si>
+    <t>Sudadera de hombre básica marrón oscuro H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA998</t>
+  </si>
+  <si>
+    <t>Sudadera de hombre hoodie crema/Rocky H&amp;M</t>
+  </si>
+  <si>
+    <t>0588</t>
+  </si>
+  <si>
+    <t>Chaqueta regular fit en tejido waffled crema H&amp;M</t>
   </si>
 </sst>
 </file>
@@ -1060,13 +1300,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.0"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1124,11 +1364,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1140,32 +1380,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1179,6 +1402,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1189,21 +1427,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1224,22 +1477,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1253,22 +1492,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1295,13 +1535,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1313,7 +1649,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1325,157 +1703,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1560,17 +1794,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1580,26 +1808,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1620,6 +1828,56 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1633,177 +1891,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1817,10 +2051,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1838,23 +2072,23 @@
     <xf numFmtId="178" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1866,7 +2100,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2203,12 +2437,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XEX214"/>
+  <dimension ref="A1:XEX269"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A171" sqref="A171"/>
+      <selection pane="bottomLeft" activeCell="C220" sqref="C220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -23789,7 +24023,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="168" ht="14.8" spans="1:9">
+    <row r="168" ht="14.8" spans="1:15">
       <c r="A168" s="2" t="s">
         <v>338</v>
       </c>
@@ -23815,8 +24049,12 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="169" ht="14.8" spans="1:9">
+      <c r="O168">
+        <f t="shared" ref="O168:O199" si="11">F168</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="169" ht="14.8" spans="1:15">
       <c r="A169" s="2" t="s">
         <v>340</v>
       </c>
@@ -23842,8 +24080,12 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="170" ht="14.8" spans="1:9">
+      <c r="O169">
+        <f t="shared" si="11"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="170" ht="14.8" spans="1:15">
       <c r="A170" s="2" t="s">
         <v>342</v>
       </c>
@@ -23869,8 +24111,12 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="171" ht="14.8" spans="1:9">
+      <c r="O170">
+        <f t="shared" si="11"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="171" ht="14.8" spans="1:15">
       <c r="A171" s="2" t="s">
         <v>343</v>
       </c>
@@ -23896,421 +24142,1977 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="172" ht="14.8" spans="6:9">
-      <c r="F172" s="11"/>
-      <c r="G172" s="12"/>
+      <c r="O171">
+        <f t="shared" si="11"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="172" ht="14.8" spans="1:15">
+      <c r="A172" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B172" t="s">
+        <v>181</v>
+      </c>
+      <c r="C172" t="s">
+        <v>346</v>
+      </c>
+      <c r="D172" t="s">
+        <v>50</v>
+      </c>
+      <c r="F172" s="11">
+        <v>30</v>
+      </c>
+      <c r="G172" s="12">
+        <v>3</v>
+      </c>
       <c r="H172" s="12">
         <v>0</v>
       </c>
       <c r="I172" s="16">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" ht="14.8" spans="6:9">
-      <c r="F173" s="11"/>
-      <c r="G173" s="12"/>
+        <v>3</v>
+      </c>
+      <c r="O172">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="173" ht="14.8" spans="1:15">
+      <c r="A173" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B173" t="s">
+        <v>181</v>
+      </c>
+      <c r="C173" t="s">
+        <v>346</v>
+      </c>
+      <c r="D173" t="s">
+        <v>44</v>
+      </c>
+      <c r="F173" s="11">
+        <v>30</v>
+      </c>
+      <c r="G173" s="12">
+        <v>2</v>
+      </c>
       <c r="H173" s="12">
         <v>0</v>
       </c>
       <c r="I173" s="16">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" ht="14.8" spans="6:9">
-      <c r="F174" s="11"/>
-      <c r="G174" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="O173">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="174" ht="14.8" spans="1:15">
+      <c r="A174" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B174" t="s">
+        <v>184</v>
+      </c>
+      <c r="C174" t="s">
+        <v>346</v>
+      </c>
+      <c r="D174" t="s">
+        <v>25</v>
+      </c>
+      <c r="F174" s="11">
+        <v>30</v>
+      </c>
+      <c r="G174" s="12">
+        <v>3</v>
+      </c>
       <c r="H174" s="12">
         <v>0</v>
       </c>
       <c r="I174" s="16">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" ht="14.8" spans="6:9">
-      <c r="F175" s="11"/>
-      <c r="G175" s="12"/>
+        <v>3</v>
+      </c>
+      <c r="O174">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="175" ht="14.8" spans="1:15">
+      <c r="A175" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B175" t="s">
+        <v>194</v>
+      </c>
+      <c r="C175" t="s">
+        <v>346</v>
+      </c>
+      <c r="D175" t="s">
+        <v>33</v>
+      </c>
+      <c r="F175" s="11">
+        <v>30</v>
+      </c>
+      <c r="G175" s="12">
+        <v>1</v>
+      </c>
       <c r="H175" s="12">
         <v>0</v>
       </c>
       <c r="I175" s="16">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" ht="14.8" spans="6:9">
-      <c r="F176" s="11"/>
-      <c r="G176" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="O175">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="176" ht="14.8" spans="1:15">
+      <c r="A176" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B176" t="s">
+        <v>181</v>
+      </c>
+      <c r="C176" t="s">
+        <v>351</v>
+      </c>
+      <c r="D176" t="s">
+        <v>44</v>
+      </c>
+      <c r="F176" s="11">
+        <v>30</v>
+      </c>
+      <c r="G176" s="12">
+        <v>1</v>
+      </c>
       <c r="H176" s="12">
         <v>0</v>
       </c>
       <c r="I176" s="16">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" ht="14.8" spans="6:9">
-      <c r="F177" s="11"/>
-      <c r="G177" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="O176">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="177" ht="14.8" spans="1:15">
+      <c r="A177" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B177" t="s">
+        <v>194</v>
+      </c>
+      <c r="C177" t="s">
+        <v>353</v>
+      </c>
+      <c r="D177" t="s">
+        <v>66</v>
+      </c>
+      <c r="F177" s="11">
+        <v>30</v>
+      </c>
+      <c r="G177" s="12">
+        <v>1</v>
+      </c>
       <c r="H177" s="12">
         <v>0</v>
       </c>
       <c r="I177" s="16">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" ht="14.8" spans="6:9">
-      <c r="F178" s="11"/>
-      <c r="G178" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="O177">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="178" ht="14.8" spans="1:15">
+      <c r="A178" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B178" t="s">
+        <v>194</v>
+      </c>
+      <c r="C178" t="s">
+        <v>353</v>
+      </c>
+      <c r="D178" t="s">
+        <v>33</v>
+      </c>
+      <c r="F178" s="11">
+        <v>30</v>
+      </c>
+      <c r="G178" s="12">
+        <v>1</v>
+      </c>
       <c r="H178" s="12">
         <v>0</v>
       </c>
       <c r="I178" s="16">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" ht="14.8" spans="6:9">
-      <c r="F179" s="11"/>
-      <c r="G179" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="O178">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="179" ht="14.8" spans="1:15">
+      <c r="A179" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B179" t="s">
+        <v>356</v>
+      </c>
+      <c r="C179" t="s">
+        <v>357</v>
+      </c>
+      <c r="D179" t="s">
+        <v>29</v>
+      </c>
+      <c r="F179" s="11">
+        <v>35</v>
+      </c>
+      <c r="G179" s="12">
+        <v>1</v>
+      </c>
       <c r="H179" s="12">
         <v>0</v>
       </c>
       <c r="I179" s="16">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" ht="14.8" spans="6:9">
-      <c r="F180" s="11"/>
-      <c r="G180" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="O179">
+        <f t="shared" si="11"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="180" ht="14.8" spans="1:15">
+      <c r="A180" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B180" t="s">
+        <v>356</v>
+      </c>
+      <c r="C180" t="s">
+        <v>359</v>
+      </c>
+      <c r="D180" t="s">
+        <v>29</v>
+      </c>
+      <c r="F180" s="11">
+        <v>30</v>
+      </c>
+      <c r="G180" s="12">
+        <v>1</v>
+      </c>
       <c r="H180" s="12">
         <v>0</v>
       </c>
       <c r="I180" s="16">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" ht="14.8" spans="6:9">
-      <c r="F181" s="11"/>
-      <c r="G181" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="O180">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="181" ht="14.8" spans="1:15">
+      <c r="A181" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B181" t="s">
+        <v>181</v>
+      </c>
+      <c r="C181" t="s">
+        <v>361</v>
+      </c>
+      <c r="D181" t="s">
+        <v>50</v>
+      </c>
+      <c r="F181" s="11">
+        <v>30</v>
+      </c>
+      <c r="G181" s="12">
+        <v>1</v>
+      </c>
       <c r="H181" s="12">
         <v>0</v>
       </c>
       <c r="I181" s="16">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" ht="14.8" spans="6:9">
-      <c r="F182" s="11"/>
-      <c r="G182" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="O181">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182" ht="14.8" spans="1:15">
+      <c r="A182" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B182" t="s">
+        <v>181</v>
+      </c>
+      <c r="C182" t="s">
+        <v>363</v>
+      </c>
+      <c r="D182" t="s">
+        <v>44</v>
+      </c>
+      <c r="F182" s="11">
+        <v>30</v>
+      </c>
+      <c r="G182" s="12">
+        <v>1</v>
+      </c>
       <c r="H182" s="12">
         <v>0</v>
       </c>
       <c r="I182" s="16">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" ht="14.8" spans="6:9">
-      <c r="F183" s="11"/>
-      <c r="G183" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="O182">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="183" ht="14.8" spans="1:15">
+      <c r="A183" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B183" t="s">
+        <v>184</v>
+      </c>
+      <c r="C183" t="s">
+        <v>363</v>
+      </c>
+      <c r="D183" t="s">
+        <v>25</v>
+      </c>
+      <c r="F183" s="11">
+        <v>30</v>
+      </c>
+      <c r="G183" s="12">
+        <v>2</v>
+      </c>
       <c r="H183" s="12">
         <v>0</v>
       </c>
       <c r="I183" s="16">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" ht="14.8" spans="6:9">
-      <c r="F184" s="11"/>
-      <c r="G184" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="O183">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="184" ht="14.8" spans="1:15">
+      <c r="A184" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B184" t="s">
+        <v>194</v>
+      </c>
+      <c r="C184" t="s">
+        <v>363</v>
+      </c>
+      <c r="D184" t="s">
+        <v>33</v>
+      </c>
+      <c r="F184" s="11">
+        <v>30</v>
+      </c>
+      <c r="G184" s="12">
+        <v>1</v>
+      </c>
       <c r="H184" s="12">
         <v>0</v>
       </c>
       <c r="I184" s="16">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" ht="14.8" spans="6:9">
-      <c r="F185" s="11"/>
-      <c r="G185" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="O184">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="185" ht="14.8" spans="1:15">
+      <c r="A185" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B185" t="s">
+        <v>194</v>
+      </c>
+      <c r="C185" t="s">
+        <v>367</v>
+      </c>
+      <c r="D185" t="s">
+        <v>66</v>
+      </c>
+      <c r="F185" s="11">
+        <v>35</v>
+      </c>
+      <c r="G185" s="12">
+        <v>1</v>
+      </c>
       <c r="H185" s="12">
         <v>0</v>
       </c>
       <c r="I185" s="16">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" ht="14.8" spans="6:9">
-      <c r="F186" s="11"/>
-      <c r="G186" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="O185">
+        <f t="shared" si="11"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="186" ht="14.8" spans="1:15">
+      <c r="A186" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B186" t="s">
+        <v>181</v>
+      </c>
+      <c r="C186" t="s">
+        <v>369</v>
+      </c>
+      <c r="D186" t="s">
+        <v>50</v>
+      </c>
+      <c r="F186" s="11">
+        <v>35</v>
+      </c>
+      <c r="G186" s="12">
+        <v>1</v>
+      </c>
       <c r="H186" s="12">
         <v>0</v>
       </c>
       <c r="I186" s="16">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" ht="14.8" spans="6:9">
-      <c r="F187" s="11"/>
-      <c r="G187" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="O186">
+        <f t="shared" si="11"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="187" ht="14.8" spans="1:15">
+      <c r="A187" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B187" t="s">
+        <v>181</v>
+      </c>
+      <c r="C187" t="s">
+        <v>371</v>
+      </c>
+      <c r="D187" t="s">
+        <v>50</v>
+      </c>
+      <c r="F187" s="11">
+        <v>25</v>
+      </c>
+      <c r="G187" s="12">
+        <v>1</v>
+      </c>
       <c r="H187" s="12">
         <v>0</v>
       </c>
       <c r="I187" s="16">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" ht="14.8" spans="6:9">
-      <c r="F188" s="11"/>
-      <c r="G188" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="O187">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="188" ht="14.8" spans="1:15">
+      <c r="A188" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B188" t="s">
+        <v>184</v>
+      </c>
+      <c r="C188" t="s">
+        <v>371</v>
+      </c>
+      <c r="D188" t="s">
+        <v>25</v>
+      </c>
+      <c r="F188" s="11">
+        <v>25</v>
+      </c>
+      <c r="G188" s="12">
+        <v>1</v>
+      </c>
       <c r="H188" s="12">
         <v>0</v>
       </c>
       <c r="I188" s="16">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" ht="14.8" spans="6:9">
-      <c r="F189" s="11"/>
-      <c r="G189" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="O188">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="189" ht="14.8" spans="1:15">
+      <c r="A189" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B189" t="s">
+        <v>194</v>
+      </c>
+      <c r="C189" t="s">
+        <v>371</v>
+      </c>
+      <c r="D189" t="s">
+        <v>33</v>
+      </c>
+      <c r="F189" s="11">
+        <v>25</v>
+      </c>
+      <c r="G189" s="12">
+        <v>1</v>
+      </c>
       <c r="H189" s="12">
         <v>0</v>
       </c>
       <c r="I189" s="16">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" ht="14.8" spans="6:9">
-      <c r="F190" s="11"/>
-      <c r="G190" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="O189">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="190" ht="14.8" spans="1:15">
+      <c r="A190" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B190" t="s">
+        <v>181</v>
+      </c>
+      <c r="C190" t="s">
+        <v>375</v>
+      </c>
+      <c r="D190" t="s">
+        <v>50</v>
+      </c>
+      <c r="F190" s="11">
+        <v>20</v>
+      </c>
+      <c r="G190" s="12">
+        <v>1</v>
+      </c>
       <c r="H190" s="12">
         <v>0</v>
       </c>
       <c r="I190" s="16">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" ht="14.8" spans="6:9">
-      <c r="F191" s="11"/>
-      <c r="G191" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="O190">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="191" ht="14.8" spans="1:15">
+      <c r="A191" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B191" t="s">
+        <v>181</v>
+      </c>
+      <c r="C191" t="s">
+        <v>375</v>
+      </c>
+      <c r="D191" t="s">
+        <v>44</v>
+      </c>
+      <c r="F191" s="11">
+        <v>20</v>
+      </c>
+      <c r="G191" s="12">
+        <v>1</v>
+      </c>
       <c r="H191" s="12">
         <v>0</v>
       </c>
       <c r="I191" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" ht="14.8" spans="6:9">
-      <c r="F192" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="O191">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="192" ht="14.8" spans="1:15">
+      <c r="A192" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B192" t="s">
+        <v>184</v>
+      </c>
+      <c r="C192" t="s">
+        <v>375</v>
+      </c>
+      <c r="D192" t="s">
+        <v>25</v>
+      </c>
+      <c r="F192" s="11">
+        <v>20</v>
+      </c>
+      <c r="G192" s="12">
+        <v>1</v>
+      </c>
       <c r="H192" s="12">
         <v>0</v>
       </c>
       <c r="I192" s="16">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" ht="14.8" spans="6:9">
-      <c r="F193" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="O192">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193" ht="14.8" spans="1:15">
+      <c r="A193" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B193" t="s">
+        <v>184</v>
+      </c>
+      <c r="C193" t="s">
+        <v>379</v>
+      </c>
+      <c r="D193" t="s">
+        <v>25</v>
+      </c>
+      <c r="F193" s="11">
+        <v>20</v>
+      </c>
+      <c r="G193" s="12">
+        <v>2</v>
+      </c>
       <c r="H193" s="12">
         <v>0</v>
       </c>
       <c r="I193" s="16">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" ht="14.8" spans="6:9">
-      <c r="F194" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="O193">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194" ht="14.8" spans="1:15">
+      <c r="A194" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B194" t="s">
+        <v>194</v>
+      </c>
+      <c r="C194" t="s">
+        <v>379</v>
+      </c>
+      <c r="D194" t="s">
+        <v>33</v>
+      </c>
+      <c r="F194" s="11">
+        <v>20</v>
+      </c>
+      <c r="G194" s="12">
+        <v>1</v>
+      </c>
       <c r="H194" s="12">
         <v>0</v>
       </c>
       <c r="I194" s="16">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" ht="14.8" spans="8:9">
+        <v>1</v>
+      </c>
+      <c r="O194">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195" ht="14.8" spans="1:15">
+      <c r="A195" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B195" t="s">
+        <v>194</v>
+      </c>
+      <c r="C195" t="s">
+        <v>382</v>
+      </c>
+      <c r="D195" t="s">
+        <v>66</v>
+      </c>
+      <c r="F195" s="11">
+        <v>40</v>
+      </c>
+      <c r="G195" s="12">
+        <v>1</v>
+      </c>
       <c r="H195" s="12">
         <v>0</v>
       </c>
       <c r="I195" s="16">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" ht="14.8" spans="8:9">
+        <v>1</v>
+      </c>
+      <c r="O195">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="196" ht="14.8" spans="1:15">
+      <c r="A196" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B196" t="s">
+        <v>181</v>
+      </c>
+      <c r="C196" t="s">
+        <v>384</v>
+      </c>
+      <c r="D196" t="s">
+        <v>44</v>
+      </c>
+      <c r="F196" s="11">
+        <v>25</v>
+      </c>
+      <c r="G196" s="12">
+        <v>1</v>
+      </c>
       <c r="H196" s="12">
         <v>0</v>
       </c>
       <c r="I196" s="16">
-        <f t="shared" ref="I196:I214" si="11">G196-H196</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" ht="14.8" spans="8:9">
+        <f t="shared" ref="I196:I214" si="12">G196-H196</f>
+        <v>1</v>
+      </c>
+      <c r="O196">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="197" ht="14.8" spans="1:15">
+      <c r="A197" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B197" t="s">
+        <v>68</v>
+      </c>
+      <c r="C197" t="s">
+        <v>386</v>
+      </c>
+      <c r="D197" t="s">
+        <v>25</v>
+      </c>
+      <c r="F197" s="11">
+        <v>25</v>
+      </c>
+      <c r="G197" s="12">
+        <v>1</v>
+      </c>
       <c r="H197" s="12">
         <v>0</v>
       </c>
       <c r="I197" s="16">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O197">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" ht="14.8" spans="8:9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="198" ht="14.8" spans="1:15">
+      <c r="A198" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B198" t="s">
+        <v>181</v>
+      </c>
+      <c r="C198" t="s">
+        <v>388</v>
+      </c>
+      <c r="D198" t="s">
+        <v>44</v>
+      </c>
+      <c r="F198" s="11">
+        <v>30</v>
+      </c>
+      <c r="G198" s="12">
+        <v>1</v>
+      </c>
       <c r="H198" s="12">
         <v>0</v>
       </c>
       <c r="I198" s="16">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O198">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" ht="14.8" spans="8:9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="199" ht="14.8" spans="1:15">
+      <c r="A199" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B199" t="s">
+        <v>181</v>
+      </c>
+      <c r="C199" t="s">
+        <v>390</v>
+      </c>
+      <c r="D199" t="s">
+        <v>44</v>
+      </c>
+      <c r="F199" s="11">
+        <v>40</v>
+      </c>
+      <c r="G199" s="12">
+        <v>1</v>
+      </c>
       <c r="H199" s="12">
         <v>0</v>
       </c>
       <c r="I199" s="16">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O199">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" ht="14.8" spans="8:9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="200" ht="14.8" spans="1:15">
+      <c r="A200" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B200" t="s">
+        <v>194</v>
+      </c>
+      <c r="C200" t="s">
+        <v>392</v>
+      </c>
+      <c r="D200" t="s">
+        <v>33</v>
+      </c>
+      <c r="F200" s="11">
+        <v>30</v>
+      </c>
+      <c r="G200" s="12">
+        <v>1</v>
+      </c>
       <c r="H200" s="12">
         <v>0</v>
       </c>
       <c r="I200" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" ht="14.8" spans="8:9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O200">
+        <f t="shared" ref="O200:O229" si="13">F200</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="201" ht="14.8" spans="1:15">
+      <c r="A201" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B201" t="s">
+        <v>184</v>
+      </c>
+      <c r="C201" t="s">
+        <v>394</v>
+      </c>
+      <c r="D201" t="s">
+        <v>25</v>
+      </c>
+      <c r="F201" s="11">
+        <v>30</v>
+      </c>
+      <c r="G201" s="12">
+        <v>1</v>
+      </c>
       <c r="H201" s="12">
         <v>0</v>
       </c>
       <c r="I201" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" ht="14.8" spans="8:9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O201">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="202" ht="14.8" spans="1:15">
+      <c r="A202" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B202" t="s">
+        <v>181</v>
+      </c>
+      <c r="C202" t="s">
+        <v>396</v>
+      </c>
+      <c r="D202" t="s">
+        <v>50</v>
+      </c>
+      <c r="F202" s="11">
+        <v>35</v>
+      </c>
+      <c r="G202" s="12">
+        <v>1</v>
+      </c>
       <c r="H202" s="12">
         <v>0</v>
       </c>
       <c r="I202" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" ht="14.8" spans="8:9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O202">
+        <f t="shared" si="13"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="203" ht="14.8" spans="1:15">
+      <c r="A203" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B203" t="s">
+        <v>181</v>
+      </c>
+      <c r="C203" t="s">
+        <v>398</v>
+      </c>
+      <c r="D203" t="s">
+        <v>50</v>
+      </c>
+      <c r="F203" s="11">
+        <v>30</v>
+      </c>
+      <c r="G203" s="12">
+        <v>1</v>
+      </c>
       <c r="H203" s="12">
         <v>0</v>
       </c>
       <c r="I203" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" ht="14.8" spans="8:9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O203">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="204" ht="14.8" spans="1:15">
+      <c r="A204" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B204" t="s">
+        <v>181</v>
+      </c>
+      <c r="C204" t="s">
+        <v>400</v>
+      </c>
+      <c r="D204" t="s">
+        <v>50</v>
+      </c>
+      <c r="F204" s="11">
+        <v>30</v>
+      </c>
+      <c r="G204" s="12">
+        <v>1</v>
+      </c>
       <c r="H204" s="12">
         <v>0</v>
       </c>
       <c r="I204" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" ht="14.8" spans="8:9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O204">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="205" ht="14.8" spans="1:15">
+      <c r="A205" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B205" t="s">
+        <v>181</v>
+      </c>
+      <c r="C205" t="s">
+        <v>402</v>
+      </c>
+      <c r="D205" t="s">
+        <v>44</v>
+      </c>
+      <c r="F205" s="11">
+        <v>30</v>
+      </c>
+      <c r="G205" s="12">
+        <v>1</v>
+      </c>
       <c r="H205" s="12">
         <v>0</v>
       </c>
       <c r="I205" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" ht="14.8" spans="8:9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O205">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="206" ht="14.8" spans="1:15">
+      <c r="A206" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B206" t="s">
+        <v>194</v>
+      </c>
+      <c r="C206" t="s">
+        <v>402</v>
+      </c>
+      <c r="D206" t="s">
+        <v>33</v>
+      </c>
+      <c r="F206" s="11">
+        <v>30</v>
+      </c>
+      <c r="G206" s="12">
+        <v>3</v>
+      </c>
       <c r="H206" s="12">
         <v>0</v>
       </c>
       <c r="I206" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" ht="14.8" spans="8:9">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="O206">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="207" ht="14.8" spans="1:15">
+      <c r="A207" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B207" t="s">
+        <v>356</v>
+      </c>
+      <c r="C207" t="s">
+        <v>405</v>
+      </c>
+      <c r="D207" t="s">
+        <v>29</v>
+      </c>
+      <c r="F207" s="11">
+        <v>30</v>
+      </c>
+      <c r="G207" s="12">
+        <v>1</v>
+      </c>
       <c r="H207" s="12">
         <v>0</v>
       </c>
       <c r="I207" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" ht="14.8" spans="8:9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O207">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="208" ht="14.8" spans="1:15">
+      <c r="A208" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B208" t="s">
+        <v>184</v>
+      </c>
+      <c r="C208" t="s">
+        <v>407</v>
+      </c>
+      <c r="D208" t="s">
+        <v>25</v>
+      </c>
+      <c r="F208" s="11">
+        <v>30</v>
+      </c>
+      <c r="G208" s="12">
+        <v>1</v>
+      </c>
       <c r="H208" s="12">
         <v>0</v>
       </c>
       <c r="I208" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" ht="14.8" spans="9:9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O208">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="209" ht="14.8" spans="1:15">
+      <c r="A209" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B209" t="s">
+        <v>194</v>
+      </c>
+      <c r="C209" t="s">
+        <v>407</v>
+      </c>
+      <c r="D209" t="s">
+        <v>33</v>
+      </c>
+      <c r="F209" s="11">
+        <v>30</v>
+      </c>
+      <c r="G209" s="12">
+        <v>1</v>
+      </c>
+      <c r="H209" s="12">
+        <v>0</v>
+      </c>
       <c r="I209" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" ht="14.8" spans="9:9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O209">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="210" ht="14.8" spans="1:15">
+      <c r="A210" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B210" t="s">
+        <v>181</v>
+      </c>
+      <c r="C210" t="s">
+        <v>410</v>
+      </c>
+      <c r="D210" t="s">
+        <v>50</v>
+      </c>
+      <c r="F210" s="11">
+        <v>30</v>
+      </c>
+      <c r="G210" s="12">
+        <v>1</v>
+      </c>
+      <c r="H210" s="12">
+        <v>0</v>
+      </c>
       <c r="I210" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" ht="14.8" spans="9:9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O210">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="211" ht="14.8" spans="1:15">
+      <c r="A211" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B211" t="s">
+        <v>194</v>
+      </c>
+      <c r="C211" t="s">
+        <v>410</v>
+      </c>
+      <c r="D211" t="s">
+        <v>33</v>
+      </c>
+      <c r="F211" s="11">
+        <v>30</v>
+      </c>
+      <c r="G211" s="12">
+        <v>1</v>
+      </c>
+      <c r="H211" s="12">
+        <v>0</v>
+      </c>
       <c r="I211" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" ht="14.8" spans="9:9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O211">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="212" ht="14.8" spans="1:15">
+      <c r="A212" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B212" t="s">
+        <v>181</v>
+      </c>
+      <c r="C212" t="s">
+        <v>413</v>
+      </c>
+      <c r="D212" t="s">
+        <v>44</v>
+      </c>
+      <c r="F212" s="11">
+        <v>30</v>
+      </c>
+      <c r="G212" s="12">
+        <v>1</v>
+      </c>
+      <c r="H212" s="12">
+        <v>0</v>
+      </c>
       <c r="I212" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" ht="14.8" spans="9:9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O212">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="213" ht="14.8" spans="1:15">
+      <c r="A213" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B213" t="s">
+        <v>181</v>
+      </c>
+      <c r="C213" t="s">
+        <v>415</v>
+      </c>
+      <c r="D213" t="s">
+        <v>50</v>
+      </c>
+      <c r="F213" s="11">
+        <v>30</v>
+      </c>
+      <c r="G213" s="12">
+        <v>1</v>
+      </c>
+      <c r="H213" s="12">
+        <v>0</v>
+      </c>
       <c r="I213" s="16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" ht="14.8" spans="9:9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O213">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="214" ht="14.8" spans="1:15">
+      <c r="A214" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B214" t="s">
+        <v>184</v>
+      </c>
+      <c r="C214" t="s">
+        <v>415</v>
+      </c>
+      <c r="D214" t="s">
+        <v>25</v>
+      </c>
+      <c r="F214" s="11">
+        <v>30</v>
+      </c>
+      <c r="G214" s="12">
+        <v>1</v>
+      </c>
+      <c r="H214" s="12">
+        <v>0</v>
+      </c>
       <c r="I214" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O214">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="215" ht="14.8" spans="1:15">
+      <c r="A215" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B215" t="s">
+        <v>181</v>
+      </c>
+      <c r="C215" t="s">
+        <v>418</v>
+      </c>
+      <c r="D215" t="s">
+        <v>50</v>
+      </c>
+      <c r="F215" s="11">
+        <v>30</v>
+      </c>
+      <c r="G215" s="12">
+        <v>1</v>
+      </c>
+      <c r="H215" s="12">
+        <v>0</v>
+      </c>
+      <c r="I215" s="16">
+        <f t="shared" ref="I215:I231" si="14">G215-H215</f>
+        <v>1</v>
+      </c>
+      <c r="O215">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="216" ht="14.8" spans="1:15">
+      <c r="A216" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B216" t="s">
+        <v>181</v>
+      </c>
+      <c r="C216" t="s">
+        <v>420</v>
+      </c>
+      <c r="D216" t="s">
+        <v>50</v>
+      </c>
+      <c r="F216" s="11">
+        <v>30</v>
+      </c>
+      <c r="G216" s="12">
+        <v>2</v>
+      </c>
+      <c r="H216" s="12">
+        <v>0</v>
+      </c>
+      <c r="I216" s="16">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="O216">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="217" ht="14.8" spans="1:15">
+      <c r="A217" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B217" t="s">
+        <v>184</v>
+      </c>
+      <c r="C217" t="s">
+        <v>422</v>
+      </c>
+      <c r="D217" t="s">
+        <v>25</v>
+      </c>
+      <c r="F217" s="11">
+        <v>40</v>
+      </c>
+      <c r="G217" s="12">
+        <v>1</v>
+      </c>
+      <c r="H217" s="12">
+        <v>0</v>
+      </c>
+      <c r="I217" s="16">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="O217">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="218" ht="14.8" spans="1:15">
+      <c r="A218" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B218" t="s">
+        <v>181</v>
+      </c>
+      <c r="C218" t="s">
+        <v>424</v>
+      </c>
+      <c r="D218" t="s">
+        <v>44</v>
+      </c>
+      <c r="F218" s="11">
+        <v>50</v>
+      </c>
+      <c r="G218" s="12">
+        <v>1</v>
+      </c>
+      <c r="H218" s="12">
+        <v>0</v>
+      </c>
+      <c r="I218" s="16">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="O218">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="219" ht="14.8" spans="4:15">
+      <c r="D219" t="s">
+        <v>3</v>
+      </c>
+      <c r="F219" s="11"/>
+      <c r="G219" s="12"/>
+      <c r="H219" s="12">
+        <v>0</v>
+      </c>
+      <c r="I219" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O219">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" ht="14.8" spans="4:15">
+      <c r="D220" t="s">
+        <v>3</v>
+      </c>
+      <c r="F220" s="11"/>
+      <c r="G220" s="12"/>
+      <c r="H220" s="12">
+        <v>0</v>
+      </c>
+      <c r="I220" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O220">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" ht="14.8" spans="6:15">
+      <c r="F221" s="11"/>
+      <c r="G221" s="12"/>
+      <c r="H221" s="12">
+        <v>0</v>
+      </c>
+      <c r="I221" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O221">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" ht="14.8" spans="6:15">
+      <c r="F222" s="11"/>
+      <c r="G222" s="12"/>
+      <c r="H222" s="12">
+        <v>0</v>
+      </c>
+      <c r="I222" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" ht="14.8" spans="6:15">
+      <c r="F223" s="11"/>
+      <c r="G223" s="12"/>
+      <c r="H223" s="12">
+        <v>0</v>
+      </c>
+      <c r="I223" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" ht="14.8" spans="6:15">
+      <c r="F224" s="11"/>
+      <c r="G224" s="12"/>
+      <c r="H224" s="12">
+        <v>0</v>
+      </c>
+      <c r="I224" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" ht="14.8" spans="6:15">
+      <c r="F225" s="11"/>
+      <c r="G225" s="12"/>
+      <c r="H225" s="12">
+        <v>0</v>
+      </c>
+      <c r="I225" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" ht="14.8" spans="6:15">
+      <c r="F226" s="11"/>
+      <c r="G226" s="12"/>
+      <c r="H226" s="12">
+        <v>0</v>
+      </c>
+      <c r="I226" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" ht="14.8" spans="6:15">
+      <c r="F227" s="11"/>
+      <c r="G227" s="12"/>
+      <c r="H227" s="12">
+        <v>0</v>
+      </c>
+      <c r="I227" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" ht="14.8" spans="7:15">
+      <c r="G228" s="12"/>
+      <c r="H228" s="12">
+        <v>0</v>
+      </c>
+      <c r="I228" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" ht="14.8" spans="7:15">
+      <c r="G229" s="12"/>
+      <c r="H229" s="12">
+        <v>0</v>
+      </c>
+      <c r="I229" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" ht="14.8" spans="7:9">
+      <c r="G230" s="12"/>
+      <c r="H230" s="12">
+        <v>0</v>
+      </c>
+      <c r="I230" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" ht="14.8" spans="7:9">
+      <c r="G231" s="12"/>
+      <c r="H231" s="12">
+        <v>0</v>
+      </c>
+      <c r="I231" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" ht="14.8" spans="7:9">
+      <c r="G232" s="12"/>
+      <c r="H232" s="12">
+        <v>0</v>
+      </c>
+      <c r="I232" s="16">
+        <f t="shared" ref="I232:I269" si="15">G232-H232</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" ht="14.8" spans="7:9">
+      <c r="G233" s="12"/>
+      <c r="H233" s="12">
+        <v>0</v>
+      </c>
+      <c r="I233" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" ht="14.8" spans="7:9">
+      <c r="G234" s="12"/>
+      <c r="H234" s="12">
+        <v>0</v>
+      </c>
+      <c r="I234" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" ht="14.8" spans="7:9">
+      <c r="G235" s="12"/>
+      <c r="H235" s="12">
+        <v>0</v>
+      </c>
+      <c r="I235" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" ht="14.8" spans="7:9">
+      <c r="G236" s="12"/>
+      <c r="H236" s="12">
+        <v>0</v>
+      </c>
+      <c r="I236" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" ht="14.8" spans="7:9">
+      <c r="G237" s="12"/>
+      <c r="H237" s="12">
+        <v>0</v>
+      </c>
+      <c r="I237" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" ht="14.8" spans="7:9">
+      <c r="G238" s="12"/>
+      <c r="H238" s="12">
+        <v>0</v>
+      </c>
+      <c r="I238" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" ht="14.8" spans="7:9">
+      <c r="G239" s="12"/>
+      <c r="H239" s="12">
+        <v>0</v>
+      </c>
+      <c r="I239" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" ht="14.8" spans="7:9">
+      <c r="G240" s="12"/>
+      <c r="H240" s="12">
+        <v>0</v>
+      </c>
+      <c r="I240" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" ht="14.8" spans="7:9">
+      <c r="G241" s="12"/>
+      <c r="H241" s="12">
+        <v>0</v>
+      </c>
+      <c r="I241" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" ht="14.8" spans="7:9">
+      <c r="G242" s="12"/>
+      <c r="H242" s="12">
+        <v>0</v>
+      </c>
+      <c r="I242" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" ht="14.8" spans="7:9">
+      <c r="G243" s="12"/>
+      <c r="H243" s="12">
+        <v>0</v>
+      </c>
+      <c r="I243" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" ht="14.8" spans="7:9">
+      <c r="G244" s="12"/>
+      <c r="H244" s="12">
+        <v>0</v>
+      </c>
+      <c r="I244" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" ht="14.8" spans="8:9">
+      <c r="H245" s="12">
+        <v>0</v>
+      </c>
+      <c r="I245" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" ht="14.8" spans="8:9">
+      <c r="H246" s="12">
+        <v>0</v>
+      </c>
+      <c r="I246" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" ht="14.8" spans="8:9">
+      <c r="H247" s="12">
+        <v>0</v>
+      </c>
+      <c r="I247" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" ht="14.8" spans="8:9">
+      <c r="H248" s="12">
+        <v>0</v>
+      </c>
+      <c r="I248" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" ht="14.8" spans="8:9">
+      <c r="H249" s="12">
+        <v>0</v>
+      </c>
+      <c r="I249" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" ht="14.8" spans="8:9">
+      <c r="H250" s="12">
+        <v>0</v>
+      </c>
+      <c r="I250" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" ht="14.8" spans="8:9">
+      <c r="H251" s="12">
+        <v>0</v>
+      </c>
+      <c r="I251" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" ht="14.8" spans="8:9">
+      <c r="H252" s="12">
+        <v>0</v>
+      </c>
+      <c r="I252" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" ht="14.8" spans="8:9">
+      <c r="H253" s="12">
+        <v>0</v>
+      </c>
+      <c r="I253" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" ht="14.8" spans="8:9">
+      <c r="H254" s="12">
+        <v>0</v>
+      </c>
+      <c r="I254" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" ht="14.8" spans="8:9">
+      <c r="H255" s="12">
+        <v>0</v>
+      </c>
+      <c r="I255" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" ht="14.8" spans="8:9">
+      <c r="H256" s="12">
+        <v>0</v>
+      </c>
+      <c r="I256" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" ht="14.8" spans="8:9">
+      <c r="H257" s="12">
+        <v>0</v>
+      </c>
+      <c r="I257" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" ht="14.8" spans="9:9">
+      <c r="I258" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" ht="14.8" spans="9:9">
+      <c r="I259" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" ht="14.8" spans="9:9">
+      <c r="I260" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" ht="14.8" spans="9:9">
+      <c r="I261" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" ht="14.8" spans="9:9">
+      <c r="I262" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" ht="14.8" spans="9:9">
+      <c r="I263" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" ht="14.8" spans="9:9">
+      <c r="I264" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" ht="14.8" spans="9:9">
+      <c r="I265" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" ht="14.8" spans="9:9">
+      <c r="I266" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" ht="14.8" spans="9:9">
+      <c r="I267" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" ht="14.8" spans="9:9">
+      <c r="I268" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" ht="14.8" spans="9:9">
+      <c r="I269" s="16">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V167">
+  <autoFilter ref="A1:V214">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="B1">

--- a/EntradaInvierno_LETTA.xlsx
+++ b/EntradaInvierno_LETTA.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15740" windowHeight="13260"/>
+    <workbookView windowWidth="28800" windowHeight="13260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$214</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$269</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="451">
   <si>
     <t>Code</t>
   </si>
@@ -1292,6 +1292,84 @@
   </si>
   <si>
     <t>Chaqueta regular fit en tejido waffled crema H&amp;M</t>
+  </si>
+  <si>
+    <t>YILHM2623</t>
+  </si>
+  <si>
+    <t>YILHM2314</t>
+  </si>
+  <si>
+    <t>Polo de mujer loose fit de mangas largas blanco con rayas azul marino H&amp;M</t>
+  </si>
+  <si>
+    <t>YILHM2261</t>
+  </si>
+  <si>
+    <t>YILHM2448</t>
+  </si>
+  <si>
+    <t>Polo de mangas largas de mujer negro H&amp;M</t>
+  </si>
+  <si>
+    <t>YILHM2449</t>
+  </si>
+  <si>
+    <t>Enguatada negra sencilla H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA1039</t>
+  </si>
+  <si>
+    <t>Suéter de punto fino azul marino H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA1040</t>
+  </si>
+  <si>
+    <t>YILHM2329</t>
+  </si>
+  <si>
+    <t>YILHM2330</t>
+  </si>
+  <si>
+    <t>YILHM2273</t>
+  </si>
+  <si>
+    <t>YILHM2332</t>
+  </si>
+  <si>
+    <t>YILHM2447</t>
+  </si>
+  <si>
+    <t>Enguatada con escote en U blanca de algodón H&amp;M</t>
+  </si>
+  <si>
+    <t>YILHM2411</t>
+  </si>
+  <si>
+    <t>YILHM2336</t>
+  </si>
+  <si>
+    <t>tops /hm /hm /tallas-pequenas</t>
+  </si>
+  <si>
+    <t>Enguatada de microfibra beige grisáceo H&amp;M</t>
+  </si>
+  <si>
+    <t>YILHM2335</t>
+  </si>
+  <si>
+    <t>LTA1041</t>
+  </si>
+  <si>
+    <t>LTA1042</t>
+  </si>
+  <si>
+    <t>Cárdigan de punto fino azul grisáceo claro H&amp;M</t>
+  </si>
+  <si>
+    <t>LTA1043</t>
   </si>
 </sst>
 </file>
@@ -1300,13 +1378,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.0"/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1364,46 +1442,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1417,38 +1458,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1464,21 +1483,67 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1492,17 +1557,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1541,19 +1619,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1571,109 +1643,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1691,7 +1661,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1703,13 +1757,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1794,11 +1872,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1808,21 +1892,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1856,23 +1925,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1896,148 +1974,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2051,13 +2129,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -2069,32 +2147,32 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
@@ -2440,9 +2518,9 @@
   <dimension ref="A1:XEX269"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C220" sqref="C220"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -19677,14 +19755,14 @@
         <v>18</v>
       </c>
       <c r="G27" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" s="13">
         <v>0</v>
       </c>
       <c r="I27" s="16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O27">
         <f t="shared" si="1"/>
@@ -19739,13 +19817,13 @@
         <v>18</v>
       </c>
       <c r="G29" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H29" s="13">
         <v>0</v>
       </c>
       <c r="I29" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O29">
         <f t="shared" si="1"/>
@@ -19799,14 +19877,14 @@
         <v>18</v>
       </c>
       <c r="G31" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31" s="13">
         <v>0</v>
       </c>
       <c r="I31" s="16">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O31">
         <f t="shared" si="1"/>
@@ -22056,14 +22134,14 @@
         <v>40</v>
       </c>
       <c r="G104" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H104" s="13">
         <v>0</v>
       </c>
       <c r="I104" s="16">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O104">
         <f t="shared" si="6"/>
@@ -22800,14 +22878,14 @@
         <v>25</v>
       </c>
       <c r="G128" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H128" s="13">
         <v>0</v>
       </c>
       <c r="I128" s="16">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O128">
         <f t="shared" si="6"/>
@@ -22924,14 +23002,14 @@
         <v>25</v>
       </c>
       <c r="G132" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H132" s="13">
         <v>0</v>
       </c>
       <c r="I132" s="16">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O132">
         <f t="shared" si="9"/>
@@ -22955,14 +23033,14 @@
         <v>25</v>
       </c>
       <c r="G133" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H133" s="13">
         <v>0</v>
       </c>
       <c r="I133" s="16">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O133">
         <f t="shared" si="9"/>
@@ -25603,246 +25681,541 @@
         <v>50</v>
       </c>
     </row>
-    <row r="219" ht="14.8" spans="4:15">
+    <row r="219" ht="14.8" spans="1:15">
+      <c r="A219" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B219" t="s">
+        <v>68</v>
+      </c>
+      <c r="C219" t="s">
+        <v>251</v>
+      </c>
       <c r="D219" t="s">
-        <v>3</v>
-      </c>
-      <c r="F219" s="11"/>
-      <c r="G219" s="12"/>
+        <v>25</v>
+      </c>
+      <c r="F219" s="11">
+        <v>25</v>
+      </c>
+      <c r="G219" s="12">
+        <v>1</v>
+      </c>
       <c r="H219" s="12">
         <v>0</v>
       </c>
       <c r="I219" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O219">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" ht="14.8" spans="4:15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="220" ht="14.8" spans="1:15">
+      <c r="A220" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B220" t="s">
+        <v>64</v>
+      </c>
+      <c r="C220" t="s">
+        <v>427</v>
+      </c>
       <c r="D220" t="s">
-        <v>3</v>
-      </c>
-      <c r="F220" s="11"/>
-      <c r="G220" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="F220" s="11">
+        <v>25</v>
+      </c>
+      <c r="G220" s="12">
+        <v>2</v>
+      </c>
       <c r="H220" s="12">
         <v>0</v>
       </c>
       <c r="I220" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O220">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" ht="14.8" spans="6:15">
-      <c r="F221" s="11"/>
-      <c r="G221" s="12"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="221" ht="14.8" spans="1:15">
+      <c r="A221" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B221" t="s">
+        <v>61</v>
+      </c>
+      <c r="C221" t="s">
+        <v>81</v>
+      </c>
+      <c r="D221" t="s">
+        <v>50</v>
+      </c>
+      <c r="F221" s="11">
+        <v>18</v>
+      </c>
+      <c r="G221" s="12">
+        <v>1</v>
+      </c>
       <c r="H221" s="12">
         <v>0</v>
       </c>
       <c r="I221" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O221">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" ht="14.8" spans="6:15">
-      <c r="F222" s="11"/>
-      <c r="G222" s="12"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="222" ht="14.8" spans="1:15">
+      <c r="A222" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B222" t="s">
+        <v>68</v>
+      </c>
+      <c r="C222" t="s">
+        <v>430</v>
+      </c>
+      <c r="D222" t="s">
+        <v>25</v>
+      </c>
+      <c r="F222" s="11">
+        <v>20</v>
+      </c>
+      <c r="G222" s="12">
+        <v>1</v>
+      </c>
       <c r="H222" s="12">
         <v>0</v>
       </c>
       <c r="I222" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O222">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" ht="14.8" spans="6:15">
-      <c r="F223" s="11"/>
-      <c r="G223" s="12"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="223" ht="14.8" spans="1:15">
+      <c r="A223" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B223" t="s">
+        <v>68</v>
+      </c>
+      <c r="C223" t="s">
+        <v>432</v>
+      </c>
+      <c r="D223" t="s">
+        <v>25</v>
+      </c>
+      <c r="F223" s="11">
+        <v>20</v>
+      </c>
+      <c r="G223" s="12">
+        <v>1</v>
+      </c>
       <c r="H223" s="12">
         <v>0</v>
       </c>
       <c r="I223" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O223">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" ht="14.8" spans="6:15">
-      <c r="F224" s="11"/>
-      <c r="G224" s="12"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="224" ht="14.8" spans="1:15">
+      <c r="A224" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B224" t="s">
+        <v>64</v>
+      </c>
+      <c r="C224" t="s">
+        <v>434</v>
+      </c>
+      <c r="D224" t="s">
+        <v>33</v>
+      </c>
+      <c r="F224" s="11">
+        <v>25</v>
+      </c>
+      <c r="G224" s="12">
+        <v>1</v>
+      </c>
       <c r="H224" s="12">
         <v>0</v>
       </c>
       <c r="I224" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O224">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" ht="14.8" spans="6:15">
-      <c r="F225" s="11"/>
-      <c r="G225" s="12"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="225" ht="14.8" spans="1:15">
+      <c r="A225" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B225" t="s">
+        <v>61</v>
+      </c>
+      <c r="C225" t="s">
+        <v>232</v>
+      </c>
+      <c r="D225" t="s">
+        <v>44</v>
+      </c>
+      <c r="F225" s="11">
+        <v>25</v>
+      </c>
+      <c r="G225" s="12">
+        <v>1</v>
+      </c>
       <c r="H225" s="12">
         <v>0</v>
       </c>
       <c r="I225" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O225">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" ht="14.8" spans="6:15">
-      <c r="F226" s="11"/>
-      <c r="G226" s="12"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="226" ht="14.8" spans="1:15">
+      <c r="A226" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B226" t="s">
+        <v>64</v>
+      </c>
+      <c r="C226" t="s">
+        <v>96</v>
+      </c>
+      <c r="D226" t="s">
+        <v>33</v>
+      </c>
+      <c r="F226" s="11">
+        <v>20</v>
+      </c>
+      <c r="G226" s="12">
+        <v>2</v>
+      </c>
       <c r="H226" s="12">
         <v>0</v>
       </c>
       <c r="I226" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O226">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" ht="14.8" spans="6:15">
-      <c r="F227" s="11"/>
-      <c r="G227" s="12"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="227" ht="14.8" spans="1:15">
+      <c r="A227" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B227" t="s">
+        <v>68</v>
+      </c>
+      <c r="C227" t="s">
+        <v>96</v>
+      </c>
+      <c r="D227" t="s">
+        <v>25</v>
+      </c>
+      <c r="F227" s="11">
+        <v>20</v>
+      </c>
+      <c r="G227" s="12">
+        <v>1</v>
+      </c>
       <c r="H227" s="12">
         <v>0</v>
       </c>
       <c r="I227" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O227">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" ht="14.8" spans="7:15">
-      <c r="G228" s="12"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="228" ht="14.8" spans="1:15">
+      <c r="A228" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B228" t="s">
+        <v>64</v>
+      </c>
+      <c r="C228" t="s">
+        <v>150</v>
+      </c>
+      <c r="D228" t="s">
+        <v>66</v>
+      </c>
+      <c r="F228" s="11">
+        <v>20</v>
+      </c>
+      <c r="G228" s="12">
+        <v>1</v>
+      </c>
       <c r="H228" s="12">
         <v>0</v>
       </c>
       <c r="I228" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O228">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" ht="14.8" spans="7:15">
-      <c r="G229" s="12"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="229" ht="14.8" spans="1:15">
+      <c r="A229" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B229" t="s">
+        <v>68</v>
+      </c>
+      <c r="C229" t="s">
+        <v>106</v>
+      </c>
+      <c r="D229" t="s">
+        <v>25</v>
+      </c>
+      <c r="F229" s="11">
+        <v>18</v>
+      </c>
+      <c r="G229" s="12">
+        <v>1</v>
+      </c>
       <c r="H229" s="12">
         <v>0</v>
       </c>
       <c r="I229" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O229">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" ht="14.8" spans="7:9">
-      <c r="G230" s="12"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="230" ht="14.8" spans="1:9">
+      <c r="A230" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B230" t="s">
+        <v>68</v>
+      </c>
+      <c r="C230" t="s">
+        <v>441</v>
+      </c>
+      <c r="D230" t="s">
+        <v>25</v>
+      </c>
+      <c r="F230" s="11">
+        <v>18</v>
+      </c>
+      <c r="G230" s="12">
+        <v>2</v>
+      </c>
       <c r="H230" s="12">
         <v>0</v>
       </c>
       <c r="I230" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" ht="14.8" spans="7:9">
-      <c r="G231" s="12"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" ht="14.8" spans="1:9">
+      <c r="A231" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B231" t="s">
+        <v>61</v>
+      </c>
+      <c r="C231" t="s">
+        <v>100</v>
+      </c>
+      <c r="D231" t="s">
+        <v>44</v>
+      </c>
+      <c r="F231" s="11">
+        <v>18</v>
+      </c>
+      <c r="G231" s="12">
+        <v>1</v>
+      </c>
       <c r="H231" s="12">
         <v>0</v>
       </c>
       <c r="I231" s="16">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" ht="14.8" spans="7:9">
-      <c r="G232" s="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" ht="14.8" spans="1:9">
+      <c r="A232" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B232" t="s">
+        <v>444</v>
+      </c>
+      <c r="C232" t="s">
+        <v>445</v>
+      </c>
+      <c r="D232" t="s">
+        <v>44</v>
+      </c>
+      <c r="F232" s="11">
+        <v>20</v>
+      </c>
+      <c r="G232" s="12">
+        <v>1</v>
+      </c>
       <c r="H232" s="12">
         <v>0</v>
       </c>
       <c r="I232" s="16">
         <f t="shared" ref="I232:I269" si="15">G232-H232</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" ht="14.8" spans="7:9">
-      <c r="G233" s="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" ht="14.8" spans="1:9">
+      <c r="A233" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B233" t="s">
+        <v>64</v>
+      </c>
+      <c r="C233" t="s">
+        <v>445</v>
+      </c>
+      <c r="D233" t="s">
+        <v>33</v>
+      </c>
+      <c r="F233" s="11">
+        <v>20</v>
+      </c>
+      <c r="G233" s="12">
+        <v>1</v>
+      </c>
       <c r="H233" s="12">
         <v>0</v>
       </c>
       <c r="I233" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" ht="14.8" spans="7:9">
-      <c r="G234" s="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" ht="14.8" spans="1:9">
+      <c r="A234" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B234" t="s">
+        <v>68</v>
+      </c>
+      <c r="C234" t="s">
+        <v>445</v>
+      </c>
+      <c r="D234" t="s">
+        <v>25</v>
+      </c>
+      <c r="F234" s="11">
+        <v>20</v>
+      </c>
+      <c r="G234" s="12">
+        <v>1</v>
+      </c>
       <c r="H234" s="12">
         <v>0</v>
       </c>
       <c r="I234" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" ht="14.8" spans="7:9">
-      <c r="G235" s="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" ht="14.8" spans="1:9">
+      <c r="A235" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B235" t="s">
+        <v>61</v>
+      </c>
+      <c r="C235" t="s">
+        <v>449</v>
+      </c>
+      <c r="D235" t="s">
+        <v>44</v>
+      </c>
+      <c r="F235" s="11">
+        <v>25</v>
+      </c>
+      <c r="G235" s="12">
+        <v>2</v>
+      </c>
       <c r="H235" s="12">
         <v>0</v>
       </c>
       <c r="I235" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" ht="14.8" spans="7:9">
-      <c r="G236" s="12"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" ht="14.8" spans="1:9">
+      <c r="A236" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B236" t="s">
+        <v>64</v>
+      </c>
+      <c r="C236" t="s">
+        <v>445</v>
+      </c>
+      <c r="D236" t="s">
+        <v>66</v>
+      </c>
+      <c r="F236" s="11">
+        <v>20</v>
+      </c>
+      <c r="G236" s="12">
+        <v>1</v>
+      </c>
       <c r="H236" s="12">
         <v>0</v>
       </c>
       <c r="I236" s="16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" ht="14.8" spans="7:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" ht="14.8" spans="4:9">
+      <c r="D237" t="s">
+        <v>3</v>
+      </c>
+      <c r="F237" s="11"/>
       <c r="G237" s="12"/>
       <c r="H237" s="12">
         <v>0</v>
@@ -25852,7 +26225,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" ht="14.8" spans="7:9">
+    <row r="238" ht="14.8" spans="4:9">
+      <c r="D238" t="s">
+        <v>3</v>
+      </c>
+      <c r="F238" s="11"/>
       <c r="G238" s="12"/>
       <c r="H238" s="12">
         <v>0</v>
@@ -25862,7 +26239,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" ht="14.8" spans="7:9">
+    <row r="239" ht="14.8" spans="4:9">
+      <c r="D239" t="s">
+        <v>3</v>
+      </c>
+      <c r="F239" s="11"/>
       <c r="G239" s="12"/>
       <c r="H239" s="12">
         <v>0</v>
@@ -25872,7 +26253,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" ht="14.8" spans="7:9">
+    <row r="240" ht="14.8" spans="4:9">
+      <c r="D240" t="s">
+        <v>3</v>
+      </c>
+      <c r="F240" s="11"/>
       <c r="G240" s="12"/>
       <c r="H240" s="12">
         <v>0</v>
@@ -25882,7 +26267,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" ht="14.8" spans="7:9">
+    <row r="241" ht="14.8" spans="4:9">
+      <c r="D241" t="s">
+        <v>3</v>
+      </c>
+      <c r="F241" s="11"/>
       <c r="G241" s="12"/>
       <c r="H241" s="12">
         <v>0</v>
@@ -25892,7 +26281,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" ht="14.8" spans="7:9">
+    <row r="242" ht="14.8" spans="4:9">
+      <c r="D242" t="s">
+        <v>3</v>
+      </c>
+      <c r="F242" s="11"/>
       <c r="G242" s="12"/>
       <c r="H242" s="12">
         <v>0</v>
@@ -25902,7 +26295,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" ht="14.8" spans="7:9">
+    <row r="243" ht="14.8" spans="4:9">
+      <c r="D243" t="s">
+        <v>3</v>
+      </c>
+      <c r="F243" s="11"/>
       <c r="G243" s="12"/>
       <c r="H243" s="12">
         <v>0</v>
@@ -25912,7 +26309,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" ht="14.8" spans="7:9">
+    <row r="244" ht="14.8" spans="4:9">
+      <c r="D244" t="s">
+        <v>3</v>
+      </c>
+      <c r="F244" s="11"/>
       <c r="G244" s="12"/>
       <c r="H244" s="12">
         <v>0</v>
@@ -25922,7 +26323,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" ht="14.8" spans="8:9">
+    <row r="245" ht="14.8" spans="4:9">
+      <c r="D245" t="s">
+        <v>3</v>
+      </c>
+      <c r="F245" s="11"/>
       <c r="H245" s="12">
         <v>0</v>
       </c>
@@ -25931,7 +26336,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" ht="14.8" spans="8:9">
+    <row r="246" ht="14.8" spans="4:9">
+      <c r="D246" t="s">
+        <v>3</v>
+      </c>
+      <c r="F246" s="11"/>
       <c r="H246" s="12">
         <v>0</v>
       </c>
@@ -25940,7 +26349,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" ht="14.8" spans="8:9">
+    <row r="247" ht="14.8" spans="4:9">
+      <c r="D247" t="s">
+        <v>3</v>
+      </c>
+      <c r="F247" s="11"/>
       <c r="H247" s="12">
         <v>0</v>
       </c>
@@ -25949,7 +26362,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" ht="14.8" spans="8:9">
+    <row r="248" ht="14.8" spans="4:9">
+      <c r="D248" t="s">
+        <v>3</v>
+      </c>
+      <c r="F248" s="11"/>
       <c r="H248" s="12">
         <v>0</v>
       </c>
@@ -25958,7 +26375,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" ht="14.8" spans="8:9">
+    <row r="249" ht="14.8" spans="4:9">
+      <c r="D249" t="s">
+        <v>3</v>
+      </c>
+      <c r="F249" s="11"/>
       <c r="H249" s="12">
         <v>0</v>
       </c>
@@ -25967,7 +26388,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" ht="14.8" spans="8:9">
+    <row r="250" ht="14.8" spans="4:9">
+      <c r="D250" t="s">
+        <v>3</v>
+      </c>
+      <c r="F250" s="11"/>
       <c r="H250" s="12">
         <v>0</v>
       </c>
@@ -25976,7 +26401,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" ht="14.8" spans="8:9">
+    <row r="251" ht="14.8" spans="4:9">
+      <c r="D251" t="s">
+        <v>3</v>
+      </c>
+      <c r="F251" s="11"/>
       <c r="H251" s="12">
         <v>0</v>
       </c>
@@ -25985,7 +26414,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" ht="14.8" spans="8:9">
+    <row r="252" ht="14.8" spans="4:9">
+      <c r="D252" t="s">
+        <v>3</v>
+      </c>
+      <c r="F252" s="11"/>
       <c r="H252" s="12">
         <v>0</v>
       </c>
@@ -25994,7 +26427,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" ht="14.8" spans="8:9">
+    <row r="253" ht="14.8" spans="4:9">
+      <c r="D253" t="s">
+        <v>3</v>
+      </c>
+      <c r="F253" s="11"/>
       <c r="H253" s="12">
         <v>0</v>
       </c>
@@ -26003,7 +26440,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" ht="14.8" spans="8:9">
+    <row r="254" ht="14.8" spans="4:9">
+      <c r="D254" t="s">
+        <v>3</v>
+      </c>
+      <c r="F254" s="11"/>
       <c r="H254" s="12">
         <v>0</v>
       </c>
@@ -26012,7 +26453,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" ht="14.8" spans="8:9">
+    <row r="255" ht="14.8" spans="4:9">
+      <c r="D255" t="s">
+        <v>3</v>
+      </c>
+      <c r="F255" s="11"/>
       <c r="H255" s="12">
         <v>0</v>
       </c>
@@ -26021,7 +26466,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" ht="14.8" spans="8:9">
+    <row r="256" ht="14.8" spans="4:9">
+      <c r="D256" t="s">
+        <v>3</v>
+      </c>
+      <c r="F256" s="11"/>
       <c r="H256" s="12">
         <v>0</v>
       </c>
@@ -26030,7 +26479,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" ht="14.8" spans="8:9">
+    <row r="257" ht="14.8" spans="4:9">
+      <c r="D257" t="s">
+        <v>3</v>
+      </c>
+      <c r="F257" s="11"/>
       <c r="H257" s="12">
         <v>0</v>
       </c>
@@ -26039,37 +26492,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" ht="14.8" spans="9:9">
+    <row r="258" ht="14.8" spans="4:9">
+      <c r="D258" t="s">
+        <v>3</v>
+      </c>
+      <c r="F258" s="11"/>
       <c r="I258" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="259" ht="14.8" spans="9:9">
+    <row r="259" ht="14.8" spans="4:9">
+      <c r="D259" t="s">
+        <v>3</v>
+      </c>
+      <c r="F259" s="11"/>
       <c r="I259" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="260" ht="14.8" spans="9:9">
+    <row r="260" ht="14.8" spans="4:9">
+      <c r="D260" t="s">
+        <v>3</v>
+      </c>
+      <c r="F260" s="11"/>
       <c r="I260" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="261" ht="14.8" spans="9:9">
+    <row r="261" ht="14.8" spans="4:9">
+      <c r="D261" t="s">
+        <v>3</v>
+      </c>
+      <c r="F261" s="11"/>
       <c r="I261" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="262" ht="14.8" spans="9:9">
+    <row r="262" ht="14.8" spans="4:9">
+      <c r="D262" t="s">
+        <v>3</v>
+      </c>
+      <c r="F262" s="11"/>
       <c r="I262" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="263" ht="14.8" spans="9:9">
+    <row r="263" ht="14.8" spans="6:9">
+      <c r="F263" s="11"/>
       <c r="I263" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -26112,7 +26586,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V214">
+  <autoFilter ref="A1:V269">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="B1">
